--- a/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,432 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r567057417-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>98336</t>
+  </si>
+  <si>
+    <t>567057417</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Clean Motel 6</t>
+  </si>
+  <si>
+    <t>It's a Motel 6 so do not expect fluffy towels, coffee makers or, for that matter, ....anything extra..not even internet service. Kind of like your own private barracks. BUT if you want a clean room (which are few and far between at Motel 6, Red Roof, etc.) and save $35 over the next higher level of hotel and u don't have to pay a pet fee, this is your place. Nice  professional staff. Lots of restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r481312339-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>481312339</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Yesssss</t>
+  </si>
+  <si>
+    <t>I always worry how I will feel about a place that has the word "Motel" in it BUT Wow this location I will definitely return to again, Large room , Comfy bed,  Nice Big Screen TV,  Huge bathroom with sliding door and me and my honey bear especially enjoyed the supersized shower. The staff was nice and grounds were tidy as well. This location is close to several Restaurants, Clubs and plenty other things to do that are in walking distance. It was perfect,  a little pricey for Motel 6,  but I will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Addison, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>I always worry how I will feel about a place that has the word "Motel" in it BUT Wow this location I will definitely return to again, Large room , Comfy bed,  Nice Big Screen TV,  Huge bathroom with sliding door and me and my honey bear especially enjoyed the supersized shower. The staff was nice and grounds were tidy as well. This location is close to several Restaurants, Clubs and plenty other things to do that are in walking distance. It was perfect,  a little pricey for Motel 6,  but I will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r374883625-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>374883625</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Not Too Good So Far</t>
+  </si>
+  <si>
+    <t>Simply put wonderful staff, but hands tied. I was attacked and robbed, my id taken so I can,t rent a room by myself.so my friend rented this one. But she had doctors appt. So I could not pay for the room. I have cash in hand but not allowed to pay. Plus room was uncomfortable and dated. I paid 70$ a night and didn't sleep much.But grounds r lovely, staff amazing, I would love to paint the patio furniture brigght happy colors. And clean flower beds. Rooms have no paintings, beds no comfort. Would make an awesome pet friendly boutique on the cheap hotel.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r315813013-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>315813013</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.
+The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.
+The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.
+The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a...The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a makeshift alternative.  The bathroom was nice and clean.  Beware there was no shampoo/conditioner, just bar soap.I was shocked that the WIFI wasn't free!  I guess that they are running out of ways to keep the price so reasonable.For the price this is certainly 5 star, for layout and amenities 4; overall 4.5 and I definitely will be staying again if in the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.
+The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.
+The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.
+The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a...The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a makeshift alternative.  The bathroom was nice and clean.  Beware there was no shampoo/conditioner, just bar soap.I was shocked that the WIFI wasn't free!  I guess that they are running out of ways to keep the price so reasonable.For the price this is certainly 5 star, for layout and amenities 4; overall 4.5 and I definitely will be staying again if in the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r299248103-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>299248103</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>This hotel has nice ikea type trendy furniture and hardwood floors. The linens are clean as are the rooms. I stayed in two separate rooms on two separate nights. The first one could have used new pillows as one had a used smell, but overall clean linens and towels at this hotel. There is a fridge, microwave, tv and professional staff. There was  monitoring in both of the units with comments which is why I didn't stay otherwise I would go back.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r291249685-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>291249685</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t>We are currently staying at the motel 6. It is peaceful and quite, just the way we like it. The staff is nice and very helpful plus there are a lot of restaurants close to it. An A+ in my book and rooms are very nice and clean.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270763374-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>270763374</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Good For A Quick Mid-Week Over-Nighter</t>
+  </si>
+  <si>
+    <t>Clean rooms greeted us recently remodeled with hard floor, fresh bed covers, and new furnishings and HD fLat screen televisions.  Bath areas were equipped with new fixtures all in good working order.   Our second floor rooms were relatively quite even though this property is adjacent to Addison Airport.  Room air conditioning worked properly.  Secure feeling in this area of town with many restaurant options to choose from.  Unfortunately wi-fi was not functioning at least in our area.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270669043-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>270669043</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Pretty legit for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's motel 6 so what do you expect.... Lol. This one in particular is the nicer one. It's not noisy at all &amp; pretty calm. The rooms are pretty clean &amp; the area/location is great. There's plenty of restaurants &amp; shopping centers close by. The staff were very friendly &amp; got us checked in so quickly. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r268550957-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>268550957</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>a lil bug in the shower</t>
+  </si>
+  <si>
+    <t>i walked in and was like wow, it looked nice. but when i went in the bath room there were dead bugs on the floor and a live moving bug in the shower at the top as long as it aint no bed bug i was good, but i hate bugs. over all the bed was nice and the room was clean and it was only $55</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r241542845-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>241542845</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the Typical Motel 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassle free check in though I did it very very late in the night . Got in to room and found everything very clean and maintained . Disappointed that their Wifi isn't working. They could get reimburse few of my money for no wifi . Found in morning no coffee maker . It's a cold morning and a hot coffee becomes essential. On the whole I liked it as the room was pretty clean </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r233541192-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>233541192</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Don't check in late</t>
+  </si>
+  <si>
+    <t>The room was clean, no carpet just vinyl. Decorating is very plain. I checked in extremely late and was treated like a hooker. Actually asked if I wanted the room for the entire night.  A first for me and at my age I found that insulting.This place is pretty noisy, may speak of its clientele. Don't expect to stay here again if my electricity goes out, too many other options at the same price point.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r231156770-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>231156770</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Cheap with plenty of Misquitos!!</t>
+  </si>
+  <si>
+    <t>Every night the police were present. Every night for six nights. The internet is extra like 3.00 daily. Instead of buying inter net, you should buy a mosquito net. My children, my wife and I all fought off mosquitos every night. When we left we looked like we had been in the latest war zone. The nice thing about this hotel is that it is in a nicer area then most motel 6 AND there are restaurants EVERYWHERE within walking distance. The people are friendly here and I am told this is the Motel 6 that is used for training.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r184312082-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>184312082</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Great Place to stay!</t>
+  </si>
+  <si>
+    <t>Not your typical Motel 6!  It doesn't have breakfast or wifi but the price is right!  It is a clean comfortable room!  I didn't experience the pool cause I am sure it is a bit chilly for November, but looked clean and in great condition!  Lots of dining in the area as well!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r131552420-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131552420</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Proud guest</t>
+  </si>
+  <si>
+    <t>After the bad experience in Arkansas and a 7 hour trip to finish getting to TX I was so happy to walk into this nice hotel. The staff was polite the rooms big and clean.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r130851170-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>130851170</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Management is unresponsive</t>
+  </si>
+  <si>
+    <t>Don't make a mistake of leaving anything behind!   I left a small duffle bag in the parking lot and didn't miss it until I was 150 miles away.  I then called the motel and they confirmed the maintenance man had found it and it was identified as mine by the two travel tags hanging on the bag with all of my contact information - including phone number (which they could've used to get in touch with me).  I offered to pay for mailing charges and after three weeks and six calls to the motel (none of them returned by manager, as requested) I finally got the bag.  I sent money to more than cover UPS fees and notified the motel that I received it -- minus my electric shaver. - Never heard from them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Don't make a mistake of leaving anything behind!   I left a small duffle bag in the parking lot and didn't miss it until I was 150 miles away.  I then called the motel and they confirmed the maintenance man had found it and it was identified as mine by the two travel tags hanging on the bag with all of my contact information - including phone number (which they could've used to get in touch with me).  I offered to pay for mailing charges and after three weeks and six calls to the motel (none of them returned by manager, as requested) I finally got the bag.  I sent money to more than cover UPS fees and notified the motel that I received it -- minus my electric shaver. - Never heard from them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r61303580-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>61303580</t>
+  </si>
+  <si>
+    <t>04/14/2010</t>
+  </si>
+  <si>
+    <t>this place is a shame for all european travellers not advised</t>
+  </si>
+  <si>
+    <t>we entered there after a short view of the room the night before next day by checkin they called the police on us because we stayed too long in the room like 15 minutes;Just ridiculous management not coping with reality  Never had such a bad experience in my lifethis is not a motel but a pillow joint  sorry to say soo keep away or replace the management director We europeans do not like to be treated in this undecent way ,because respect for the tourist was way out of line ;the Place looked clean and most of the staff was friendly only the manager had a verry bad day ;MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>we entered there after a short view of the room the night before next day by checkin they called the police on us because we stayed too long in the room like 15 minutes;Just ridiculous management not coping with reality  Never had such a bad experience in my lifethis is not a motel but a pillow joint  sorry to say soo keep away or replace the management director We europeans do not like to be treated in this undecent way ,because respect for the tourist was way out of line ;the Place looked clean and most of the staff was friendly only the manager had a verry bad day ;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r58088950-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>58088950</t>
+  </si>
+  <si>
+    <t>03/08/2010</t>
+  </si>
+  <si>
+    <t>Just like the pictures</t>
+  </si>
+  <si>
+    <t>Room was newly remodled and had wood floors and sleek cabinetry.  At first it felt kind of bare without carpet but it was very clean and I liked walking on a floor that I knew had been sanitized instead of jsut carpet where you dont know what kind of germs your'e getting.  It had a flat screen Tv which was nice.  The bed was a new style with a top mattress on a platform box thingie and I thought it was kind of hard, but my back felt awesome the next morning.  I suggest you bring extra pillows from home or ask for extras at the check in desk. The bright orange walls and curtains popped just like in the pictures, no frills but cheap and clean and the staff were all very nice and kept saying hello and asking me if there was anything i needed. I could not ask for more. It was a pleasant experience and I will go back to this Motel 6 next time I am in North Dallas.  BTW the Galleria is just a few blocks away and that was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was newly remodled and had wood floors and sleek cabinetry.  At first it felt kind of bare without carpet but it was very clean and I liked walking on a floor that I knew had been sanitized instead of jsut carpet where you dont know what kind of germs your'e getting.  It had a flat screen Tv which was nice.  The bed was a new style with a top mattress on a platform box thingie and I thought it was kind of hard, but my back felt awesome the next morning.  I suggest you bring extra pillows from home or ask for extras at the check in desk. The bright orange walls and curtains popped just like in the pictures, no frills but cheap and clean and the staff were all very nice and kept saying hello and asking me if there was anything i needed. I could not ask for more. It was a pleasant experience and I will go back to this Motel 6 next time I am in North Dallas.  BTW the Galleria is just a few blocks away and that was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r49753762-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>49753762</t>
+  </si>
+  <si>
+    <t>11/21/2009</t>
+  </si>
+  <si>
+    <t>Great place to stay, very good location, excellent value</t>
+  </si>
+  <si>
+    <t>We were there for two weeks, room 170 facing West towards the pool. The room was clean, the service was excellent, my only complaint was the internet. I would rather have Motel 6 charge an extra $2.99 a night for the room and throw in the internet connection than to have to buy a card every day and go through the set up procedure every 24 hours. Plus, where we were located the connection was very weak, sometimes non existent. Quite frustrating, but definitely not a deal breaker. The location was perfect for eating facilities, shopping, the airports, the speedway, everything we needed was within a half an hour or less by car.I strongly disagree with the negative review of this particular Motel 6. I will absolutely stay there again on my next visit to the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>We were there for two weeks, room 170 facing West towards the pool. The room was clean, the service was excellent, my only complaint was the internet. I would rather have Motel 6 charge an extra $2.99 a night for the room and throw in the internet connection than to have to buy a card every day and go through the set up procedure every 24 hours. Plus, where we were located the connection was very weak, sometimes non existent. Quite frustrating, but definitely not a deal breaker. The location was perfect for eating facilities, shopping, the airports, the speedway, everything we needed was within a half an hour or less by car.I strongly disagree with the negative review of this particular Motel 6. I will absolutely stay there again on my next visit to the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r14071413-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>14071413</t>
+  </si>
+  <si>
+    <t>03/05/2008</t>
+  </si>
+  <si>
+    <t>It's ok if you're needing a rm for the night but...</t>
+  </si>
+  <si>
+    <t>I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I...I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I proceeded with my shower...there were small bugs in the tub plus when I ran the water to get it warm which made it run hard, the drain was SUPER slow. I had to turn the water off twice during the shower to let the water slowly drain out. I did like, however, the curtain rod which bowed out from the tub to give more elbow room &amp; to avoid the curtain sticking to me during the shower...I REALLY hate it when that happens. Finally finished &amp; got dressed. My hair was a mess since there was no hair dryer &amp; I forgot mine so I had to borrow one from my friend later on but by then it was pretty much dry. I sat on the bed...NOT soft at all. It basically felt like it was a thin foam pad, like one of those 1" foam pads, on a board. The pillows were not fluffed or fluffy they were almost flat. The air was on but wasn't cooling off the room but the heater worked great. Well the next day I heard the housekeepers cleaning the rooms &amp; waited til after 2pm for them to do my room since I don't like anyone to be in my room alone. Well...they rolled right past my room &amp; went to the end. Didn't even do the rm next to mine, they just skipped mine &amp; went to the end!! Uhhh WTHeck?? They didn't seem to speak English so I figured it was fruitless asking them anything. They knew I was in there, they saw me peek out the door. So by that time, I was STARVing so I went to eat breakfast at Denny's next door..I highly suggest eating here if you don't hafta leave the hotel. It's real difficult at times to turn left out the hotel parking lot  to goto walmart or eat, etc. Got back to the room &amp; the key card didn't work. So I went to the front desk to get that fixed since I was staying thru to the next day which they knew already. I told the girl at the front desk about the maids not cleaning the room. She said that it was strange so since they probably weren't still 'here' she'd hafta call &amp; get back w/me. She reached for the phone &amp; picked it up so I thanked her &amp; left. Well she never got back with me so no towels whatsoever for that day nor the next morning so the next morning, I couldn't even take a shower...no washcloths or towels. I checked out that morning, looking deshevelled, &amp; complained about everyting to the front desk guy that checked me in &amp; said he'd report this to his manager but dunno if he did. He kept answering the phone while I was talking to him which is rude, he should've put them on hold. You never ask a person to wait just to answer the phone. I told him I would write a report on this, he didn't argue about it. One more thing...they lock the side &amp; front doors I think after 10pm so I had to walk around the front area to the side which is dangerous since you end up on the driveway &amp; the dumpster is there which could hide someone trying to attack me or someone else. It's just not a safe hotel in my opinion if  you hafta be out after 10 unless you're on the Denny's side of the hotel which is better lit &amp; easier access to the rooms. I forgot to mention that part to the manager but I will if I'm forced to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I...I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I proceeded with my shower...there were small bugs in the tub plus when I ran the water to get it warm which made it run hard, the drain was SUPER slow. I had to turn the water off twice during the shower to let the water slowly drain out. I did like, however, the curtain rod which bowed out from the tub to give more elbow room &amp; to avoid the curtain sticking to me during the shower...I REALLY hate it when that happens. Finally finished &amp; got dressed. My hair was a mess since there was no hair dryer &amp; I forgot mine so I had to borrow one from my friend later on but by then it was pretty much dry. I sat on the bed...NOT soft at all. It basically felt like it was a thin foam pad, like one of those 1" foam pads, on a board. The pillows were not fluffed or fluffy they were almost flat. The air was on but wasn't cooling off the room but the heater worked great. Well the next day I heard the housekeepers cleaning the rooms &amp; waited til after 2pm for them to do my room since I don't like anyone to be in my room alone. Well...they rolled right past my room &amp; went to the end. Didn't even do the rm next to mine, they just skipped mine &amp; went to the end!! Uhhh WTHeck?? They didn't seem to speak English so I figured it was fruitless asking them anything. They knew I was in there, they saw me peek out the door. So by that time, I was STARVing so I went to eat breakfast at Denny's next door..I highly suggest eating here if you don't hafta leave the hotel. It's real difficult at times to turn left out the hotel parking lot  to goto walmart or eat, etc. Got back to the room &amp; the key card didn't work. So I went to the front desk to get that fixed since I was staying thru to the next day which they knew already. I told the girl at the front desk about the maids not cleaning the room. She said that it was strange so since they probably weren't still 'here' she'd hafta call &amp; get back w/me. She reached for the phone &amp; picked it up so I thanked her &amp; left. Well she never got back with me so no towels whatsoever for that day nor the next morning so the next morning, I couldn't even take a shower...no washcloths or towels. I checked out that morning, looking deshevelled, &amp; complained about everyting to the front desk guy that checked me in &amp; said he'd report this to his manager but dunno if he did. He kept answering the phone while I was talking to him which is rude, he should've put them on hold. You never ask a person to wait just to answer the phone. I told him I would write a report on this, he didn't argue about it. One more thing...they lock the side &amp; front doors I think after 10pm so I had to walk around the front area to the side which is dangerous since you end up on the driveway &amp; the dumpster is there which could hide someone trying to attack me or someone else. It's just not a safe hotel in my opinion if  you hafta be out after 10 unless you're on the Denny's side of the hotel which is better lit &amp; easier access to the rooms. I forgot to mention that part to the manager but I will if I'm forced to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r8348410-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>8348410</t>
+  </si>
+  <si>
+    <t>08/02/2007</t>
+  </si>
+  <si>
+    <t>Great times in Addison</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the Addison Motel 6 during a trip to San Antonio.  We stopped in Dallas for a couple of days.  It was a great area with LOTS of great restaurants and shops, etc. to enjoy.  The area was in the midst of a business district, also.  Great malls and shopping were also around the area in close proximity.  This hotel was pretty basic, but clean.  Nice laundry facilities and great pool!  Everything was majorly clean!  I would definitely stay there again!</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r4595451-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>4595451</t>
+  </si>
+  <si>
+    <t>03/07/2006</t>
+  </si>
+  <si>
+    <t>HIdden Treasure - The World's Best Motel 6</t>
+  </si>
+  <si>
+    <t>I stay at this place every time I'm in the Dallas area.  It's clean, in a nice part of town, within walking distance of zillions of restaurants, and ... lovely grounds with an ENORMOUS pool.  High speed internet.  Friendly, helpful staff.  Less than $40 a night.  Yeah, it is a Motel 6, which means there's no stale bagel buffet, and you have to walk to the lobby to get a cup of coffee in the morning, but if you don't need the amenities of a true hotel, this is the best value you'll ever find.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1071,1289 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>James A</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Patty B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r481312339-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I always worry how I will feel about a place that has the word "Motel" in it BUT Wow this location I will definitely return to again, Large room , Comfy bed,  Nice Big Screen TV,  Huge bathroom with sliding door and me and my honey bear especially enjoyed the supersized shower. The staff was nice and grounds were tidy as well. This location is close to several Restaurants, Clubs and plenty other things to do that are in walking distance. It was perfect,  a little pricey for Motel 6,  but I will return!More</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r374883625-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jerrie B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r315813013-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -255,6 +267,9 @@
 The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a...The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a makeshift alternative.  The bathroom was nice and clean.  Beware there was no shampoo/conditioner, just bar soap.I was shocked that the WIFI wasn't free!  I guess that they are running out of ways to keep the price so reasonable.For the price this is certainly 5 star, for layout and amenities 4; overall 4.5 and I definitely will be staying again if in the Dallas area.More</t>
   </si>
   <si>
+    <t>HotelPro20152016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r299248103-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Derrick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r291249685-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>SaintVitas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270763374-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>DanEspy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270669043-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Orallygifted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r268550957-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Debasish D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r241542845-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Tami P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r233541192-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>woodsfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r231156770-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Randy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r184312082-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>Not your typical Motel 6!  It doesn't have breakfast or wifi but the price is right!  It is a clean comfortable room!  I didn't experience the pool cause I am sure it is a bit chilly for November, but looked clean and in great condition!  Lots of dining in the area as well!</t>
   </si>
   <si>
+    <t>Melinda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r131552420-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r130851170-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>Don't make a mistake of leaving anything behind!   I left a small duffle bag in the parking lot and didn't miss it until I was 150 miles away.  I then called the motel and they confirmed the maintenance man had found it and it was identified as mine by the two travel tags hanging on the bag with all of my contact information - including phone number (which they could've used to get in touch with me).  I offered to pay for mailing charges and after three weeks and six calls to the motel (none of them returned by manager, as requested) I finally got the bag.  I sent money to more than cover UPS fees and notified the motel that I received it -- minus my electric shaver. - Never heard from them again.More</t>
   </si>
   <si>
+    <t>cooleeBrussels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r61303580-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>we entered there after a short view of the room the night before next day by checkin they called the police on us because we stayed too long in the room like 15 minutes;Just ridiculous management not coping with reality  Never had such a bad experience in my lifethis is not a motel but a pillow joint  sorry to say soo keep away or replace the management director We europeans do not like to be treated in this undecent way ,because respect for the tourist was way out of line ;the Place looked clean and most of the staff was friendly only the manager had a verry bad day ;More</t>
   </si>
   <si>
+    <t>artistjohnni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r58088950-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>Room was newly remodled and had wood floors and sleek cabinetry.  At first it felt kind of bare without carpet but it was very clean and I liked walking on a floor that I knew had been sanitized instead of jsut carpet where you dont know what kind of germs your'e getting.  It had a flat screen Tv which was nice.  The bed was a new style with a top mattress on a platform box thingie and I thought it was kind of hard, but my back felt awesome the next morning.  I suggest you bring extra pillows from home or ask for extras at the check in desk. The bright orange walls and curtains popped just like in the pictures, no frills but cheap and clean and the staff were all very nice and kept saying hello and asking me if there was anything i needed. I could not ask for more. It was a pleasant experience and I will go back to this Motel 6 next time I am in North Dallas.  BTW the Galleria is just a few blocks away and that was great!More</t>
   </si>
   <si>
+    <t>kenpetty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r49753762-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>We were there for two weeks, room 170 facing West towards the pool. The room was clean, the service was excellent, my only complaint was the internet. I would rather have Motel 6 charge an extra $2.99 a night for the room and throw in the internet connection than to have to buy a card every day and go through the set up procedure every 24 hours. Plus, where we were located the connection was very weak, sometimes non existent. Quite frustrating, but definitely not a deal breaker. The location was perfect for eating facilities, shopping, the airports, the speedway, everything we needed was within a half an hour or less by car.I strongly disagree with the negative review of this particular Motel 6. I will absolutely stay there again on my next visit to the Dallas area.More</t>
   </si>
   <si>
+    <t>cecilschick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r14071413-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I...I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I proceeded with my shower...there were small bugs in the tub plus when I ran the water to get it warm which made it run hard, the drain was SUPER slow. I had to turn the water off twice during the shower to let the water slowly drain out. I did like, however, the curtain rod which bowed out from the tub to give more elbow room &amp; to avoid the curtain sticking to me during the shower...I REALLY hate it when that happens. Finally finished &amp; got dressed. My hair was a mess since there was no hair dryer &amp; I forgot mine so I had to borrow one from my friend later on but by then it was pretty much dry. I sat on the bed...NOT soft at all. It basically felt like it was a thin foam pad, like one of those 1" foam pads, on a board. The pillows were not fluffed or fluffy they were almost flat. The air was on but wasn't cooling off the room but the heater worked great. Well the next day I heard the housekeepers cleaning the rooms &amp; waited til after 2pm for them to do my room since I don't like anyone to be in my room alone. Well...they rolled right past my room &amp; went to the end. Didn't even do the rm next to mine, they just skipped mine &amp; went to the end!! Uhhh WTHeck?? They didn't seem to speak English so I figured it was fruitless asking them anything. They knew I was in there, they saw me peek out the door. So by that time, I was STARVing so I went to eat breakfast at Denny's next door..I highly suggest eating here if you don't hafta leave the hotel. It's real difficult at times to turn left out the hotel parking lot  to goto walmart or eat, etc. Got back to the room &amp; the key card didn't work. So I went to the front desk to get that fixed since I was staying thru to the next day which they knew already. I told the girl at the front desk about the maids not cleaning the room. She said that it was strange so since they probably weren't still 'here' she'd hafta call &amp; get back w/me. She reached for the phone &amp; picked it up so I thanked her &amp; left. Well she never got back with me so no towels whatsoever for that day nor the next morning so the next morning, I couldn't even take a shower...no washcloths or towels. I checked out that morning, looking deshevelled, &amp; complained about everyting to the front desk guy that checked me in &amp; said he'd report this to his manager but dunno if he did. He kept answering the phone while I was talking to him which is rude, he should've put them on hold. You never ask a person to wait just to answer the phone. I told him I would write a report on this, he didn't argue about it. One more thing...they lock the side &amp; front doors I think after 10pm so I had to walk around the front area to the side which is dangerous since you end up on the driveway &amp; the dumpster is there which could hide someone trying to attack me or someone else. It's just not a safe hotel in my opinion if  you hafta be out after 10 unless you're on the Denny's side of the hotel which is better lit &amp; easier access to the rooms. I forgot to mention that part to the manager but I will if I'm forced to stay here again.More</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r8348410-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -556,6 +616,9 @@
   </si>
   <si>
     <t>July 2007</t>
+  </si>
+  <si>
+    <t>66Champs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r4595451-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -1075,43 +1138,47 @@
       <c r="A2" t="n">
         <v>8167</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6838</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1125,50 +1192,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>8167</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1186,56 +1257,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>8167</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1249,50 +1324,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>8167</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1310,50 +1389,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8167</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1367,50 +1450,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>8167</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>71663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1424,50 +1511,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8167</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>28363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1485,50 +1576,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8167</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1542,50 +1637,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8167</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1605,50 +1704,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8167</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1662,50 +1765,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>8167</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1719,50 +1826,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>8167</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1782,50 +1893,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>8167</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>10937</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1839,50 +1954,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>8167</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>10049</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1906,50 +2025,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>8167</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>997</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1973,50 +2096,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>8167</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2030,50 +2157,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>8167</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2097,50 +2228,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>8167</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2164,50 +2299,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>8167</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2231,50 +2370,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>8167</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2298,41 +2441,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>8167</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169254</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2351,7 +2498,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_551.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>James A</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r583083607-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>98336</t>
+  </si>
+  <si>
+    <t>583083607</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Getting better everyday....</t>
+  </si>
+  <si>
+    <t>I stayed at this location twice in the last 6 weeks and I have nothing but praise for this location.  The rooms were exceptionally clean, great location and great price.  I am very pleasantly surprise and now when I go to Dallas will always try to stay here.  I did stay in the Farmers Branch hotel and also the same experience.  This location has a nice pool that I did not use but was also very clean and inviting.  Great job!!!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r579210341-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>579210341</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Room was clean but could not sleep due to the cat lady living next door to my room. Her cats are so noisy and ugly looking, too! The area is very nice, so many choices to eat and places to hang out and have a drink.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Addison, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean but could not sleep due to the cat lady living next door to my room. Her cats are so noisy and ugly looking, too! The area is very nice, so many choices to eat and places to hang out and have a drink.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r567057417-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
-    <t>30141</t>
-  </si>
-  <si>
-    <t>98336</t>
-  </si>
-  <si>
     <t>567057417</t>
   </si>
   <si>
@@ -177,12 +222,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Patty B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r481312339-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -213,9 +252,6 @@
     <t>I always worry how I will feel about a place that has the word "Motel" in it BUT Wow this location I will definitely return to again, Large room , Comfy bed,  Nice Big Screen TV,  Huge bathroom with sliding door and me and my honey bear especially enjoyed the supersized shower. The staff was nice and grounds were tidy as well. This location is close to several Restaurants, Clubs and plenty other things to do that are in walking distance. It was perfect,  a little pricey for Motel 6,  but I will return!More</t>
   </si>
   <si>
-    <t>13bedbugz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r374883625-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -234,10 +270,40 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Jerrie B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r330022450-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>330022450</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Good Space, Internet not included</t>
+  </si>
+  <si>
+    <t>The  room is quite large, good tube and near to a bus station. You have to pay for the internet EVERY DAY, about 5 dollars. It's quite expensive but its speed is good. Everything here is a little far. So, if you have a car or if you don't mind for walking considerable distances this is your hotel. Besides, it's cheaper than others.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r322232503-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>322232503</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Great managers, close to walking path, beautiful pool, pet friendly</t>
+  </si>
+  <si>
+    <t>This is a great location north of Dallas and close to I-635 and I-35.  The pool is well-maintained, and you can tell that the managers CARE about you AND the property.  They have great vending machines in the lobby, beverages, ice cream, snacks, etc., but this hotel is also walking distance from some great restaurants.  There is also a wonderful walking path behind the hotel, and they are pet-friendly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r315813013-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -267,9 +333,6 @@
 The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a...The title says it all!  Awesome location.  Directly east of the Downtown Carrollton station; with a bus stop 50 yard from the hotel.The area was a clean upscale urban area with plenty of shopping and dining choices nearby MANY within walking distance... We walked to dinner one evening.  Safe, well lit area with no transient activity.The hotel was clean, updated and the staff was incredibly friendly!  Our room was ready and clean when we arrived;  We dropped our bags and headed straight to the metro station for our first evening at the State Fair.The room itself was an updated neo-modern (Sparse) design;  We had a king with back patio...which they choose to call a lanai which is specific to Hawaii I think.  The floor was not carpeted and slightly cold especially in the morning.  The wall of windows and the door to the patio was awkward; if you opened the full length curtain to access the "Swing-in" patio door anyone in or across the courtyard had an unobstructed view of the bed.  Fighting the curtain, to use the door while maintaining privacy was just an annoyance.  The patio light was dusk-to-dawn with no switch.  In the early morning we had no idea if it the sun was coming up or just the porch light; the blackout shades worked well except for at the ceiling and floor. There was no dresser and only one luggage rack as a makeshift alternative.  The bathroom was nice and clean.  Beware there was no shampoo/conditioner, just bar soap.I was shocked that the WIFI wasn't free!  I guess that they are running out of ways to keep the price so reasonable.For the price this is certainly 5 star, for layout and amenities 4; overall 4.5 and I definitely will be staying again if in the Dallas area.More</t>
   </si>
   <si>
-    <t>HotelPro20152016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r299248103-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -288,9 +351,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Derrick C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r291249685-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -312,7 +372,40 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>SaintVitas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r287794099-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>287794099</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Just like the picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great price, very clean, large pool and it looks just like the pictures. Only downsides are there isn't a fridge or blow dryer. Would stay again if I was in this area again. It's close to restaurant's and shopping if you needed. Clerk was very friendly and engaging. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r274964981-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>274964981</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Better than many higher priced hotels</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of years ago and found it to be clean and close to all sorts of attractions. This time, our destination was the El Centro College area near West End, Dallas. The hotels in that area are either over priced or had questionable ratings. We decided that a 15 minute drive down the Toll road was worth staying where we knew we would be comfortable. We stayed 4 nights. The only issues we had were with 1 sheet that had been washed so often it had little fuzzies on it. We just turned it over instead of complaining. The AC was noisy and we did complain to the front desk. They said they would send a repair man, but it was still very noisy--much louder than any of the surrounding rooms; however, we were in a handicapped room and did not want to change. The hotel even offers room service. we did not order, but the food looked okay. There are national chains across the street and all sorts of place from delis to family places down the street. We went to the Target a couple of miles down the shop for produce. Unless you are on a romantic weekend or are just expecting a 4 or 5 star facility, I suggest this hotel. Save a ton and use the money for some shopping or attractions in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of years ago and found it to be clean and close to all sorts of attractions. This time, our destination was the El Centro College area near West End, Dallas. The hotels in that area are either over priced or had questionable ratings. We decided that a 15 minute drive down the Toll road was worth staying where we knew we would be comfortable. We stayed 4 nights. The only issues we had were with 1 sheet that had been washed so often it had little fuzzies on it. We just turned it over instead of complaining. The AC was noisy and we did complain to the front desk. They said they would send a repair man, but it was still very noisy--much louder than any of the surrounding rooms; however, we were in a handicapped room and did not want to change. The hotel even offers room service. we did not order, but the food looked okay. There are national chains across the street and all sorts of place from delis to family places down the street. We went to the Target a couple of miles down the shop for produce. Unless you are on a romantic weekend or are just expecting a 4 or 5 star facility, I suggest this hotel. Save a ton and use the money for some shopping or attractions in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270763374-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -330,12 +423,6 @@
     <t>Clean rooms greeted us recently remodeled with hard floor, fresh bed covers, and new furnishings and HD fLat screen televisions.  Bath areas were equipped with new fixtures all in good working order.   Our second floor rooms were relatively quite even though this property is adjacent to Addison Airport.  Room air conditioning worked properly.  Secure feeling in this area of town with many restaurant options to choose from.  Unfortunately wi-fi was not functioning at least in our area.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>DanEspy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r270669043-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -354,9 +441,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Orallygifted</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r268550957-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -375,7 +459,48 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Debasish D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r267581550-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>267581550</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable on the cheap</t>
+  </si>
+  <si>
+    <t>I had the occasion to spend one night recently at this property.  I was just looking for an inexpensive option in the area and this one stood out so I booked it.  I was glad I did - it ended up being a great deal.
+This looks like an older property with exterior walkways, but the inside of the room I had looked like it had been redone within  the past year or so.  It is a pet-friendly motel so the floor was a wood-look linoleum and all the furniture was wall-mounted for ease of cleaning.  There was a full kitchenette with full-sized refrigerator which was very welcome.  There was a small closet area and a tiny work area/desk with one hard wooden chair.  The bathroom area was spartan but clean with soap provided but no shampoo/conditioner.  The particular room I had was on the second floor and had a small balcony overlooking the pool area, which looked fairly nice (but not ready for the season yet).
+The bed looked hard but I slept well.  The air conditioner was more than adequate (the weather was temperate during my stay).  Even though every room was booked the night I stayed, noise was not a problem.
+My only real gripes, considering the price, are as follows:
+Late-night receptionist was downright surly.  She tried to charge me full price for the room even though I had already told her I booked on-line.  She...I had the occasion to spend one night recently at this property.  I was just looking for an inexpensive option in the area and this one stood out so I booked it.  I was glad I did - it ended up being a great deal.This looks like an older property with exterior walkways, but the inside of the room I had looked like it had been redone within  the past year or so.  It is a pet-friendly motel so the floor was a wood-look linoleum and all the furniture was wall-mounted for ease of cleaning.  There was a full kitchenette with full-sized refrigerator which was very welcome.  There was a small closet area and a tiny work area/desk with one hard wooden chair.  The bathroom area was spartan but clean with soap provided but no shampoo/conditioner.  The particular room I had was on the second floor and had a small balcony overlooking the pool area, which looked fairly nice (but not ready for the season yet).The bed looked hard but I slept well.  The air conditioner was more than adequate (the weather was temperate during my stay).  Even though every room was booked the night I stayed, noise was not a problem.My only real gripes, considering the price, are as follows:Late-night receptionist was downright surly.  She tried to charge me full price for the room even though I had already told her I booked on-line.  She managed to look again and discover that I was indeed telling the truth.  Then she gave me wrong directions to the room - luckily I was looking at a diagram on the counter and noticed the error.  No apology. (oops!)The water pressure in the shower was pretty poor.  The towels were very small and quite rough.  My room had no do-not-disturb sign but housekeeping never bothered me (I checked out at 10am).A little about the area - it is a real hot-spot for North Dallasites with literally dozens (hundreds?) of restaurants and bars within a 5-mile stretch.  It is probably less than 2 miles from the famous Gallaria Shopping Center and other upscale shopping, so it is definitely in the center of things in many ways.  You are very close to the North Dallas Tollway which will give you a quick route to downtown and uptown attractions.  In short, the location would be hard to beat.  Definitely look into this property if you are traveling with pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the occasion to spend one night recently at this property.  I was just looking for an inexpensive option in the area and this one stood out so I booked it.  I was glad I did - it ended up being a great deal.
+This looks like an older property with exterior walkways, but the inside of the room I had looked like it had been redone within  the past year or so.  It is a pet-friendly motel so the floor was a wood-look linoleum and all the furniture was wall-mounted for ease of cleaning.  There was a full kitchenette with full-sized refrigerator which was very welcome.  There was a small closet area and a tiny work area/desk with one hard wooden chair.  The bathroom area was spartan but clean with soap provided but no shampoo/conditioner.  The particular room I had was on the second floor and had a small balcony overlooking the pool area, which looked fairly nice (but not ready for the season yet).
+The bed looked hard but I slept well.  The air conditioner was more than adequate (the weather was temperate during my stay).  Even though every room was booked the night I stayed, noise was not a problem.
+My only real gripes, considering the price, are as follows:
+Late-night receptionist was downright surly.  She tried to charge me full price for the room even though I had already told her I booked on-line.  She...I had the occasion to spend one night recently at this property.  I was just looking for an inexpensive option in the area and this one stood out so I booked it.  I was glad I did - it ended up being a great deal.This looks like an older property with exterior walkways, but the inside of the room I had looked like it had been redone within  the past year or so.  It is a pet-friendly motel so the floor was a wood-look linoleum and all the furniture was wall-mounted for ease of cleaning.  There was a full kitchenette with full-sized refrigerator which was very welcome.  There was a small closet area and a tiny work area/desk with one hard wooden chair.  The bathroom area was spartan but clean with soap provided but no shampoo/conditioner.  The particular room I had was on the second floor and had a small balcony overlooking the pool area, which looked fairly nice (but not ready for the season yet).The bed looked hard but I slept well.  The air conditioner was more than adequate (the weather was temperate during my stay).  Even though every room was booked the night I stayed, noise was not a problem.My only real gripes, considering the price, are as follows:Late-night receptionist was downright surly.  She tried to charge me full price for the room even though I had already told her I booked on-line.  She managed to look again and discover that I was indeed telling the truth.  Then she gave me wrong directions to the room - luckily I was looking at a diagram on the counter and noticed the error.  No apology. (oops!)The water pressure in the shower was pretty poor.  The towels were very small and quite rough.  My room had no do-not-disturb sign but housekeeping never bothered me (I checked out at 10am).A little about the area - it is a real hot-spot for North Dallasites with literally dozens (hundreds?) of restaurants and bars within a 5-mile stretch.  It is probably less than 2 miles from the famous Gallaria Shopping Center and other upscale shopping, so it is definitely in the center of things in many ways.  You are very close to the North Dallas Tollway which will give you a quick route to downtown and uptown attractions.  In short, the location would be hard to beat.  Definitely look into this property if you are traveling with pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r255865102-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>255865102</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>I spent a week at this location in Addison, Texas and the staff was great! The rooms were brand new and very clean. The housekeeping staff was very friendly and efficient. It was hard to believe the I was staying at a Motel 6.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r241542845-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -396,9 +521,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Tami P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r233541192-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -417,9 +539,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>woodsfamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r231156770-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -438,7 +557,51 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Randy K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r228784238-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>228784238</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Crap!</t>
+  </si>
+  <si>
+    <t>I made reservations a few weeks in advance, hoping to save money &amp; knowing the location was good. I selected online a non-smoking room, and made a point to note I needed a non-smoking room because I have serious allergies and get migraines from smoke. I also noted I needed a mini fridge, also included online. I drove 12 hours to get there at 10:30 at night to be told the only room with a mini fridge was a smoking room. I told her I get physically sick from a migraine with a smoking room and had specifically mentioned his online weeks ago. She kept staring at the computer screen, saying "the corporation has all the non
+-smoking rooms. There are no more mini fridges. I'm sorry." I asked for a couple of trash bags and a box so I could put my food in ice. She gave me a room key to check out the room. I found a smoky-smelling drab room with a mini fridge. Turned around, drove back to the lobby, and told the woman I'd said I'm allergic to smoke. I asked to not be charged and hopefully I'll find I wasn't when I check charges on my card. I remember checking this place out about 4 years ago and thinking it was certainly tired, but the price was low enough to be tempted to use it. Stale smoke stinks. This is your ideal place if...I made reservations a few weeks in advance, hoping to save money &amp; knowing the location was good. I selected online a non-smoking room, and made a point to note I needed a non-smoking room because I have serious allergies and get migraines from smoke. I also noted I needed a mini fridge, also included online. I drove 12 hours to get there at 10:30 at night to be told the only room with a mini fridge was a smoking room. I told her I get physically sick from a migraine with a smoking room and had specifically mentioned his online weeks ago. She kept staring at the computer screen, saying "the corporation has all the non-smoking rooms. There are no more mini fridges. I'm sorry." I asked for a couple of trash bags and a box so I could put my food in ice. She gave me a room key to check out the room. I found a smoky-smelling drab room with a mini fridge. Turned around, drove back to the lobby, and told the woman I'd said I'm allergic to smoke. I asked to not be charged and hopefully I'll find I wasn't when I check charges on my card. I remember checking this place out about 4 years ago and thinking it was certainly tired, but the price was low enough to be tempted to use it. Stale smoke stinks. This is your ideal place if you are desperate and have no sense of smell and like a worn-out drab room with sub-standard business practices. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Addison, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>I made reservations a few weeks in advance, hoping to save money &amp; knowing the location was good. I selected online a non-smoking room, and made a point to note I needed a non-smoking room because I have serious allergies and get migraines from smoke. I also noted I needed a mini fridge, also included online. I drove 12 hours to get there at 10:30 at night to be told the only room with a mini fridge was a smoking room. I told her I get physically sick from a migraine with a smoking room and had specifically mentioned his online weeks ago. She kept staring at the computer screen, saying "the corporation has all the non
+-smoking rooms. There are no more mini fridges. I'm sorry." I asked for a couple of trash bags and a box so I could put my food in ice. She gave me a room key to check out the room. I found a smoky-smelling drab room with a mini fridge. Turned around, drove back to the lobby, and told the woman I'd said I'm allergic to smoke. I asked to not be charged and hopefully I'll find I wasn't when I check charges on my card. I remember checking this place out about 4 years ago and thinking it was certainly tired, but the price was low enough to be tempted to use it. Stale smoke stinks. This is your ideal place if...I made reservations a few weeks in advance, hoping to save money &amp; knowing the location was good. I selected online a non-smoking room, and made a point to note I needed a non-smoking room because I have serious allergies and get migraines from smoke. I also noted I needed a mini fridge, also included online. I drove 12 hours to get there at 10:30 at night to be told the only room with a mini fridge was a smoking room. I told her I get physically sick from a migraine with a smoking room and had specifically mentioned his online weeks ago. She kept staring at the computer screen, saying "the corporation has all the non-smoking rooms. There are no more mini fridges. I'm sorry." I asked for a couple of trash bags and a box so I could put my food in ice. She gave me a room key to check out the room. I found a smoky-smelling drab room with a mini fridge. Turned around, drove back to the lobby, and told the woman I'd said I'm allergic to smoke. I asked to not be charged and hopefully I'll find I wasn't when I check charges on my card. I remember checking this place out about 4 years ago and thinking it was certainly tired, but the price was low enough to be tempted to use it. Stale smoke stinks. This is your ideal place if you are desperate and have no sense of smell and like a worn-out drab room with sub-standard business practices. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r200393800-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>200393800</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Nice staff, poor condition</t>
+  </si>
+  <si>
+    <t>While the checkin clerk was very nice and helpful, this is the most run-down Motel 6 I've ever stayed at. Once you get past the facade, the exterior is grubby and run-down looking, with walkways that slope up and down. The bed is saggy, there are stains on the bedspread and chair, and the bathroom is run-down as well, with a barely working toilet, dented exhaust fan grate, and chipped mirror. I hope this lack of attention to property condition is not indicative of the management style of Motel 6's new ownership (The Blackstone Group bought them in 2012). The previous owner, Accor, initiated a lot of property upgrades, and it would be a shame if The Blackstone Group lets them fall into disrepair.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>While the checkin clerk was very nice and helpful, this is the most run-down Motel 6 I've ever stayed at. Once you get past the facade, the exterior is grubby and run-down looking, with walkways that slope up and down. The bed is saggy, there are stains on the bedspread and chair, and the bathroom is run-down as well, with a barely working toilet, dented exhaust fan grate, and chipped mirror. I hope this lack of attention to property condition is not indicative of the management style of Motel 6's new ownership (The Blackstone Group bought them in 2012). The previous owner, Accor, initiated a lot of property upgrades, and it would be a shame if The Blackstone Group lets them fall into disrepair.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r184312082-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -456,9 +619,6 @@
     <t>Not your typical Motel 6!  It doesn't have breakfast or wifi but the price is right!  It is a clean comfortable room!  I didn't experience the pool cause I am sure it is a bit chilly for November, but looked clean and in great condition!  Lots of dining in the area as well!</t>
   </si>
   <si>
-    <t>Melinda W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r131552420-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -477,12 +637,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Paul S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r130851170-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -504,7 +658,46 @@
     <t>Don't make a mistake of leaving anything behind!   I left a small duffle bag in the parking lot and didn't miss it until I was 150 miles away.  I then called the motel and they confirmed the maintenance man had found it and it was identified as mine by the two travel tags hanging on the bag with all of my contact information - including phone number (which they could've used to get in touch with me).  I offered to pay for mailing charges and after three weeks and six calls to the motel (none of them returned by manager, as requested) I finally got the bag.  I sent money to more than cover UPS fees and notified the motel that I received it -- minus my electric shaver. - Never heard from them again.More</t>
   </si>
   <si>
-    <t>cooleeBrussels</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r122340535-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>122340535</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>not your usual Motel 6</t>
+  </si>
+  <si>
+    <t>I was surprised at this Motel 6, obviously you stay at Motel 6 for the savings &amp; some are better than others.  This Motel 6 was very nice-the front office &amp; pool area were clean &amp; well lit. This location is close to the Galleria &amp; most hotels in the area were booked or over-priced for Christmas weekend.  The room was clean &amp; the flooring was all laminate/tile.  Nice flat screen TV &amp; the pool area would be great in the summer.  As for night time, we didn't have issues.  It was quiet and the only people we saw were just like us-travelers on a holiday weekend.  The front desk clerks were nice &amp; professional.  The bathroom was spotless, the beds were comfortable-but I would have liked a rug by the bed, but if I had to choose between the bare floors or carpet, I would still choose bare floors.  You can't beat this price in this area &amp; I will stay there again-just to be close to the great shops &amp; restaurants in Addison.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I was surprised at this Motel 6, obviously you stay at Motel 6 for the savings &amp; some are better than others.  This Motel 6 was very nice-the front office &amp; pool area were clean &amp; well lit. This location is close to the Galleria &amp; most hotels in the area were booked or over-priced for Christmas weekend.  The room was clean &amp; the flooring was all laminate/tile.  Nice flat screen TV &amp; the pool area would be great in the summer.  As for night time, we didn't have issues.  It was quiet and the only people we saw were just like us-travelers on a holiday weekend.  The front desk clerks were nice &amp; professional.  The bathroom was spotless, the beds were comfortable-but I would have liked a rug by the bed, but if I had to choose between the bare floors or carpet, I would still choose bare floors.  You can't beat this price in this area &amp; I will stay there again-just to be close to the great shops &amp; restaurants in Addison.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r71832932-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>71832932</t>
+  </si>
+  <si>
+    <t>07/21/2010</t>
+  </si>
+  <si>
+    <t>"Hardwood" Floors had an odd bounce</t>
+  </si>
+  <si>
+    <t>This place seemed good during the day but wait until you get to night time! Wow!!!! What a change to hookers, drunk party people, and dudes smoking weed hanging out back. I was on a business trip there and my room was in the back so as the cab pulled up to drop me off, the cabbie said, are you sure you want to stay here?? Given that I didnt have a choice, I said, no choice. Well sure enough I didn't get enough sleep from all the noise and commotion outside. Walked up to the front desk and the lady mentioned that almost 90% of guests at the hotel are there for a quick-2 hour stay ;-/  So they usually turnover rooms a couple times a day. Overall, the place is okay. They have this crazy new style of rooms at Motel 6. Quite frankly, I am rather displeased with the design because makes a big room completely empty. No furniture and no boxsprings under the mattresses!!!!!!!!. Flat screen TV was nice, ample of outlets for phone chargers, but other than that, this place is a trip. Hardwood is really cheap, ugly looking laminate flooring oddly put together. I could bounce on there like a trampolene. What a waste of money, I prefer carpeting and boxsprings. Wouldn't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This place seemed good during the day but wait until you get to night time! Wow!!!! What a change to hookers, drunk party people, and dudes smoking weed hanging out back. I was on a business trip there and my room was in the back so as the cab pulled up to drop me off, the cabbie said, are you sure you want to stay here?? Given that I didnt have a choice, I said, no choice. Well sure enough I didn't get enough sleep from all the noise and commotion outside. Walked up to the front desk and the lady mentioned that almost 90% of guests at the hotel are there for a quick-2 hour stay ;-/  So they usually turnover rooms a couple times a day. Overall, the place is okay. They have this crazy new style of rooms at Motel 6. Quite frankly, I am rather displeased with the design because makes a big room completely empty. No furniture and no boxsprings under the mattresses!!!!!!!!. Flat screen TV was nice, ample of outlets for phone chargers, but other than that, this place is a trip. Hardwood is really cheap, ugly looking laminate flooring oddly put together. I could bounce on there like a trampolene. What a waste of money, I prefer carpeting and boxsprings. Wouldn't stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r61303580-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -528,9 +721,6 @@
     <t>we entered there after a short view of the room the night before next day by checkin they called the police on us because we stayed too long in the room like 15 minutes;Just ridiculous management not coping with reality  Never had such a bad experience in my lifethis is not a motel but a pillow joint  sorry to say soo keep away or replace the management director We europeans do not like to be treated in this undecent way ,because respect for the tourist was way out of line ;the Place looked clean and most of the staff was friendly only the manager had a verry bad day ;More</t>
   </si>
   <si>
-    <t>artistjohnni</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r58088950-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -549,9 +739,6 @@
     <t>Room was newly remodled and had wood floors and sleek cabinetry.  At first it felt kind of bare without carpet but it was very clean and I liked walking on a floor that I knew had been sanitized instead of jsut carpet where you dont know what kind of germs your'e getting.  It had a flat screen Tv which was nice.  The bed was a new style with a top mattress on a platform box thingie and I thought it was kind of hard, but my back felt awesome the next morning.  I suggest you bring extra pillows from home or ask for extras at the check in desk. The bright orange walls and curtains popped just like in the pictures, no frills but cheap and clean and the staff were all very nice and kept saying hello and asking me if there was anything i needed. I could not ask for more. It was a pleasant experience and I will go back to this Motel 6 next time I am in North Dallas.  BTW the Galleria is just a few blocks away and that was great!More</t>
   </si>
   <si>
-    <t>kenpetty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r49753762-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -573,7 +760,43 @@
     <t>We were there for two weeks, room 170 facing West towards the pool. The room was clean, the service was excellent, my only complaint was the internet. I would rather have Motel 6 charge an extra $2.99 a night for the room and throw in the internet connection than to have to buy a card every day and go through the set up procedure every 24 hours. Plus, where we were located the connection was very weak, sometimes non existent. Quite frustrating, but definitely not a deal breaker. The location was perfect for eating facilities, shopping, the airports, the speedway, everything we needed was within a half an hour or less by car.I strongly disagree with the negative review of this particular Motel 6. I will absolutely stay there again on my next visit to the Dallas area.More</t>
   </si>
   <si>
-    <t>cecilschick</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r35373745-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>35373745</t>
+  </si>
+  <si>
+    <t>07/21/2009</t>
+  </si>
+  <si>
+    <t>Stayed there due to location,needed to be there because of my meeting wow alout of resturaunts in that area.</t>
+  </si>
+  <si>
+    <t>This is defiantely one of the nices Motel 6 I have stayed at in a inner city.But not to close to the freeway but also it was very quite.The staff was nice and the pool area was nice and a clean and the property as well.Would have liked to park by my room, that was my only complaint but they a little busy so I will let that go. Overall nice experience</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r23672321-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>23672321</t>
+  </si>
+  <si>
+    <t>01/18/2009</t>
+  </si>
+  <si>
+    <t>Recently remodeled, nice neighbourhood</t>
+  </si>
+  <si>
+    <t>We stayed at this property twice during a two week period.We wanted to stay somewhere that was near to bars and restaurants, and not too long a drive from Texas Stadium.This Motel 6 has been recently remodeled. The interior of the rooms was clean and bright. The rooms had large plasma TVs. The heaters warmed the rooms quickly and the bathrooms were clean. The linoleum floors could be a little chilly underfoot, but that was only a minor drawback.The loaction is excellent and the neighbourhood is safe enough to walk around and leave the car behind. There was a Denny's on the property, although we never used it. There is such a brilliant selection of bars and restaurants around instead.Parking is free. There is coffee available in the lobby each morning, but no breakfast. If you arrive late at night, the lobby is not open and you have to check in using the window outside.If you want a cheap place to sleep in a pleasent neighbourhood, you won't find anywhere else that fits the bill as well as this Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We stayed at this property twice during a two week period.We wanted to stay somewhere that was near to bars and restaurants, and not too long a drive from Texas Stadium.This Motel 6 has been recently remodeled. The interior of the rooms was clean and bright. The rooms had large plasma TVs. The heaters warmed the rooms quickly and the bathrooms were clean. The linoleum floors could be a little chilly underfoot, but that was only a minor drawback.The loaction is excellent and the neighbourhood is safe enough to walk around and leave the car behind. There was a Denny's on the property, although we never used it. There is such a brilliant selection of bars and restaurants around instead.Parking is free. There is coffee available in the lobby each morning, but no breakfast. If you arrive late at night, the lobby is not open and you have to check in using the window outside.If you want a cheap place to sleep in a pleasent neighbourhood, you won't find anywhere else that fits the bill as well as this Motel 6.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r14071413-Motel_6_Dallas_Addison-Addison_Texas.html</t>
@@ -597,9 +820,6 @@
     <t>I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I...I stayed here because the motel chain is sponsoring our basketball team so I basically had no choice since it was provided for me. I went to check in &amp; they were going to charge me. I told them it was taken care of but the front desk guy had no clue so he called a woman, assuming she was a manager or someone above him in rank, &amp; she told him what to do that it was legit. So he then looked up the reserved rooms &amp; said they were occupied &amp; gave me another room but the lady told him that those were for us so he gave me rm 204. Well I walked into the room just above the stairs &amp; was greatly disappointed. The front lobby was REALLY REALLY pretty &amp; nice but the rooms...well I've stayed in worse but expected better. First of all there was NO hairdryer!! There was a fridge &amp; microwave but no hairdryer! Apparantly they either forgot to put one in my room or they didn't furnish them so if you stay here, bring one if you need it, just in case. Next thing I noticed was the floor wasn't vacuumed. There was bits of trash like paper pieces on the floor &amp; it just didn't look vacuumed. I was meeting a friend later so before she got there I decided to take a shower. Well things were okay til I proceeded with my shower...there were small bugs in the tub plus when I ran the water to get it warm which made it run hard, the drain was SUPER slow. I had to turn the water off twice during the shower to let the water slowly drain out. I did like, however, the curtain rod which bowed out from the tub to give more elbow room &amp; to avoid the curtain sticking to me during the shower...I REALLY hate it when that happens. Finally finished &amp; got dressed. My hair was a mess since there was no hair dryer &amp; I forgot mine so I had to borrow one from my friend later on but by then it was pretty much dry. I sat on the bed...NOT soft at all. It basically felt like it was a thin foam pad, like one of those 1" foam pads, on a board. The pillows were not fluffed or fluffy they were almost flat. The air was on but wasn't cooling off the room but the heater worked great. Well the next day I heard the housekeepers cleaning the rooms &amp; waited til after 2pm for them to do my room since I don't like anyone to be in my room alone. Well...they rolled right past my room &amp; went to the end. Didn't even do the rm next to mine, they just skipped mine &amp; went to the end!! Uhhh WTHeck?? They didn't seem to speak English so I figured it was fruitless asking them anything. They knew I was in there, they saw me peek out the door. So by that time, I was STARVing so I went to eat breakfast at Denny's next door..I highly suggest eating here if you don't hafta leave the hotel. It's real difficult at times to turn left out the hotel parking lot  to goto walmart or eat, etc. Got back to the room &amp; the key card didn't work. So I went to the front desk to get that fixed since I was staying thru to the next day which they knew already. I told the girl at the front desk about the maids not cleaning the room. She said that it was strange so since they probably weren't still 'here' she'd hafta call &amp; get back w/me. She reached for the phone &amp; picked it up so I thanked her &amp; left. Well she never got back with me so no towels whatsoever for that day nor the next morning so the next morning, I couldn't even take a shower...no washcloths or towels. I checked out that morning, looking deshevelled, &amp; complained about everyting to the front desk guy that checked me in &amp; said he'd report this to his manager but dunno if he did. He kept answering the phone while I was talking to him which is rude, he should've put them on hold. You never ask a person to wait just to answer the phone. I told him I would write a report on this, he didn't argue about it. One more thing...they lock the side &amp; front doors I think after 10pm so I had to walk around the front area to the side which is dangerous since you end up on the driveway &amp; the dumpster is there which could hide someone trying to attack me or someone else. It's just not a safe hotel in my opinion if  you hafta be out after 10 unless you're on the Denny's side of the hotel which is better lit &amp; easier access to the rooms. I forgot to mention that part to the manager but I will if I'm forced to stay here again.More</t>
   </si>
   <si>
-    <t>Jennifer C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r8348410-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -618,9 +838,6 @@
     <t>July 2007</t>
   </si>
   <si>
-    <t>66Champs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r4595451-Motel_6_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -634,6 +851,21 @@
   </si>
   <si>
     <t>I stay at this place every time I'm in the Dallas area.  It's clean, in a nice part of town, within walking distance of zillions of restaurants, and ... lovely grounds with an ENORMOUS pool.  High speed internet.  Friendly, helpful staff.  Less than $40 a night.  Yeah, it is a Motel 6, which means there's no stale bagel buffet, and you have to walk to the lobby to get a cup of coffee in the morning, but if you don't need the amenities of a true hotel, this is the best value you'll ever find.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d98336-r3631320-Motel_6_Dallas_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>3631320</t>
+  </si>
+  <si>
+    <t>07/02/2005</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>this motel 6 was one of the cleanest I have been in. Housekeeping was excellent.</t>
   </si>
 </sst>
 </file>
@@ -1138,179 +1370,167 @@
       <c r="A2" t="n">
         <v>8167</v>
       </c>
-      <c r="B2" t="n">
-        <v>6838</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>8167</v>
       </c>
-      <c r="B3" t="n">
-        <v>169242</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>8167</v>
       </c>
-      <c r="B4" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1324,119 +1544,117 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>8167</v>
       </c>
-      <c r="B5" t="n">
-        <v>169243</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8167</v>
       </c>
-      <c r="B6" t="n">
-        <v>169244</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1450,125 +1668,123 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>8167</v>
       </c>
-      <c r="B7" t="n">
-        <v>71663</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8167</v>
       </c>
-      <c r="B8" t="n">
-        <v>28363</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1576,182 +1792,168 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8167</v>
       </c>
-      <c r="B9" t="n">
-        <v>169245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8167</v>
       </c>
-      <c r="B10" t="n">
-        <v>169246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8167</v>
       </c>
-      <c r="B11" t="n">
-        <v>169247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1765,55 +1967,47 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>8167</v>
       </c>
-      <c r="B12" t="n">
-        <v>169248</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -1826,66 +2020,60 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>8167</v>
       </c>
-      <c r="B13" t="n">
-        <v>169249</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1893,202 +2081,180 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>8167</v>
       </c>
-      <c r="B14" t="n">
-        <v>10937</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>8167</v>
       </c>
-      <c r="B15" t="n">
-        <v>10049</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>8167</v>
       </c>
-      <c r="B16" t="n">
-        <v>997</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2096,131 +2262,123 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>8167</v>
       </c>
-      <c r="B17" t="n">
-        <v>169250</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>8167</v>
       </c>
-      <c r="B18" t="n">
-        <v>169251</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2228,209 +2386,173 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>8167</v>
       </c>
-      <c r="B19" t="n">
-        <v>169252</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>8167</v>
       </c>
-      <c r="B20" t="n">
-        <v>169253</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>8167</v>
       </c>
-      <c r="B21" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>4</v>
@@ -2441,51 +2563,51 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>8167</v>
       </c>
-      <c r="B22" t="n">
-        <v>169254</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2495,10 +2617,971 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
       <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
         <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>267</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
